--- a/dev/List_cp.xlsx
+++ b/dev/List_cp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\bml_stocks\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33F329E-A641-4A64-A8B0-159182266BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3314CAD2-F3D4-4882-9421-E4B65EB2E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9A45B7B-A19E-4192-A9DB-75A0B3F6EAEF}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{A9A45B7B-A19E-4192-A9DB-75A0B3F6EAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SSI</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>SSB</t>
+  </si>
+  <si>
+    <t>BVH</t>
+  </si>
+  <si>
+    <t>REE</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>PNJ</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -421,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79408C6A-6907-44B6-9344-1994AD885F29}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +452,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A1</f>
+        <f t="shared" ref="B1:B21" si="0">"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A1</f>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=DHG</v>
       </c>
     </row>
@@ -443,7 +461,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A2</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=FPT</v>
       </c>
     </row>
@@ -452,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A3</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=HBC</v>
       </c>
     </row>
@@ -461,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A4</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=HCM</v>
       </c>
     </row>
@@ -470,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A5</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=HDG</v>
       </c>
     </row>
@@ -479,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A6</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=HPG</v>
       </c>
     </row>
@@ -488,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A7</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=MBB</v>
       </c>
     </row>
@@ -497,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A8</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=SBS</v>
       </c>
     </row>
@@ -506,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A9</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=SHS</v>
       </c>
     </row>
@@ -515,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A10</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=SSB</v>
       </c>
     </row>
@@ -524,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A11</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=SSI</v>
       </c>
     </row>
@@ -533,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A12</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=TCB</v>
       </c>
     </row>
@@ -542,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A13</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=TNG</v>
       </c>
     </row>
@@ -551,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A14</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=TPB</v>
       </c>
     </row>
@@ -560,8 +578,62 @@
         <v>9</v>
       </c>
       <c r="B15" t="str">
-        <f>"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A15</f>
+        <f t="shared" si="0"/>
         <v>https://www.cophieu68.vn/export/excelfull.php?id=VCB</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=BVH</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=REE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=BID</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=PNJ</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=ACB</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=AAA</v>
       </c>
     </row>
   </sheetData>

--- a/dev/List_cp.xlsx
+++ b/dev/List_cp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\bml_stocks\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3314CAD2-F3D4-4882-9421-E4B65EB2E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8CFCD-8B39-4404-B580-D42DEC699C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{A9A45B7B-A19E-4192-A9DB-75A0B3F6EAEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A9A45B7B-A19E-4192-A9DB-75A0B3F6EAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>SSI</t>
   </si>
@@ -441,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79408C6A-6907-44B6-9344-1994AD885F29}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,4 +643,190 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FD772C-A193-42C6-9C6D-EE57AEDD02C2}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="str">
+        <f t="shared" ref="B1:B19" si="0">"https://www.cophieu68.vn/export/excelfull.php?id="&amp;A1</f>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=DHG</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=FPT</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=HBC</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=HCM</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=HDG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=HPG</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=MBB</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=SBS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=SHS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=SSI</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=TCB</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=TNG</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=TPB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=VCB</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=BVH</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=BID</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=PNJ</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=ACB</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cophieu68.vn/export/excelfull.php?id=AAA</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>